--- a/Code/Results/Cases/Case_1_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_252/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.298506660773334</v>
+        <v>4.710855504857414</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.166920159255225</v>
+        <v>4.804792576929309</v>
       </c>
       <c r="E2">
-        <v>8.202349068743645</v>
+        <v>11.82195001753959</v>
       </c>
       <c r="F2">
-        <v>50.30492233784676</v>
+        <v>54.97338331793419</v>
       </c>
       <c r="G2">
-        <v>2.116184922254253</v>
+        <v>3.761966999061995</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.23263278750863</v>
+        <v>26.52218951118286</v>
       </c>
       <c r="J2">
-        <v>7.051251810080984</v>
+        <v>10.71073704869555</v>
       </c>
       <c r="K2">
-        <v>21.01927465240801</v>
+        <v>21.23899976025265</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.160885793046523</v>
+        <v>4.632236651735319</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.135824474890727</v>
+        <v>4.826469558780695</v>
       </c>
       <c r="E3">
-        <v>7.891704637571337</v>
+        <v>11.81653496596466</v>
       </c>
       <c r="F3">
-        <v>48.28371062283195</v>
+        <v>54.6311420076131</v>
       </c>
       <c r="G3">
-        <v>2.129770331502764</v>
+        <v>3.766536344042706</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.94072168377152</v>
+        <v>26.47044735959709</v>
       </c>
       <c r="J3">
-        <v>6.917458901116405</v>
+        <v>10.71851207039544</v>
       </c>
       <c r="K3">
-        <v>19.68037648932307</v>
+        <v>21.02325319522942</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.071830626118526</v>
+        <v>4.581987213235194</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.115345758490192</v>
+        <v>4.840719957687169</v>
       </c>
       <c r="E4">
-        <v>7.703172176300363</v>
+        <v>11.81606588957188</v>
       </c>
       <c r="F4">
-        <v>47.0516820749731</v>
+        <v>54.43228218873997</v>
       </c>
       <c r="G4">
-        <v>2.138256895623542</v>
+        <v>3.769483792932824</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.77136331695415</v>
+        <v>26.44133997575311</v>
       </c>
       <c r="J4">
-        <v>6.839798970907937</v>
+        <v>10.72518166284763</v>
       </c>
       <c r="K4">
-        <v>18.86362816742153</v>
+        <v>20.89680162844493</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.0344359072048</v>
+        <v>4.56102268477329</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.106660675736116</v>
+        <v>4.84676448661288</v>
       </c>
       <c r="E5">
-        <v>7.62695558974402</v>
+        <v>11.81659301440608</v>
       </c>
       <c r="F5">
-        <v>46.55212137714452</v>
+        <v>54.35412799357311</v>
       </c>
       <c r="G5">
-        <v>2.141756205026366</v>
+        <v>3.77072072426479</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.70471151504599</v>
+        <v>26.43014787860669</v>
       </c>
       <c r="J5">
-        <v>6.80925099277758</v>
+        <v>10.72837553597462</v>
       </c>
       <c r="K5">
-        <v>18.52600215905532</v>
+        <v>20.84684026074389</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.028161091867983</v>
+        <v>4.557512393035407</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.105198244113913</v>
+        <v>4.847782537760971</v>
       </c>
       <c r="E6">
-        <v>7.614338757190266</v>
+        <v>11.81672392141583</v>
       </c>
       <c r="F6">
-        <v>46.46932926661248</v>
+        <v>54.34132593597738</v>
       </c>
       <c r="G6">
-        <v>2.142339860067743</v>
+        <v>3.770928283784603</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.69378334025585</v>
+        <v>26.4283298571536</v>
       </c>
       <c r="J6">
-        <v>6.804244065468843</v>
+        <v>10.72893459917926</v>
       </c>
       <c r="K6">
-        <v>18.46965647268371</v>
+        <v>20.83864050821918</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.071330722613332</v>
+        <v>4.581706438825261</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.115229993306749</v>
+        <v>4.840800514063455</v>
       </c>
       <c r="E7">
-        <v>7.702141730072588</v>
+        <v>11.81607009037217</v>
       </c>
       <c r="F7">
-        <v>47.04493432441815</v>
+        <v>54.43121644322206</v>
       </c>
       <c r="G7">
-        <v>2.138303917041732</v>
+        <v>3.769500329377049</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.77045501445452</v>
+        <v>26.44118632531529</v>
       </c>
       <c r="J7">
-        <v>6.839382578197699</v>
+        <v>10.72522281043581</v>
       </c>
       <c r="K7">
-        <v>18.85909396098102</v>
+        <v>20.89612140978217</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.252025181183628</v>
+        <v>4.684163715696673</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.156491335255323</v>
+        <v>4.812072075109884</v>
       </c>
       <c r="E8">
-        <v>8.094811709183226</v>
+        <v>11.81949041689059</v>
       </c>
       <c r="F8">
-        <v>49.60625363042686</v>
+        <v>54.85306743637991</v>
       </c>
       <c r="G8">
-        <v>2.120841904753104</v>
+        <v>3.763513159449757</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.12985765033876</v>
+        <v>26.50379626594347</v>
       </c>
       <c r="J8">
-        <v>7.004169529740499</v>
+        <v>10.71302402076525</v>
       </c>
       <c r="K8">
-        <v>20.5350624528263</v>
+        <v>21.16339571854064</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.56839473482252</v>
+        <v>4.868999022917149</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.225992726067331</v>
+        <v>4.76316186905344</v>
       </c>
       <c r="E9">
-        <v>8.880615987577265</v>
+        <v>11.84883226585314</v>
       </c>
       <c r="F9">
-        <v>54.69555181681766</v>
+        <v>55.76752035965945</v>
       </c>
       <c r="G9">
-        <v>2.087521207741418</v>
+        <v>3.75289093338113</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.91883909740607</v>
+        <v>26.64769233640148</v>
       </c>
       <c r="J9">
-        <v>7.364465905087024</v>
+        <v>10.70417247980333</v>
       </c>
       <c r="K9">
-        <v>24.12302378235204</v>
+        <v>21.73266804167342</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.775137887731723</v>
+        <v>4.994505745172386</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.269457041339839</v>
+        <v>4.731703853410386</v>
       </c>
       <c r="E10">
-        <v>9.466777862445692</v>
+        <v>11.884129486133</v>
       </c>
       <c r="F10">
-        <v>58.47871626904259</v>
+        <v>56.48918826643218</v>
       </c>
       <c r="G10">
-        <v>2.063235171452822</v>
+        <v>3.745758983118855</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.55882942008381</v>
+        <v>26.7662590244058</v>
       </c>
       <c r="J10">
-        <v>7.654402588714176</v>
+        <v>10.70689014348933</v>
       </c>
       <c r="K10">
-        <v>26.6136327445688</v>
+        <v>22.17476473728582</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.863019997021839</v>
+        <v>5.049275398161893</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.287411076857779</v>
+        <v>4.71835404443023</v>
       </c>
       <c r="E11">
-        <v>9.735697397851695</v>
+        <v>11.90314852147962</v>
       </c>
       <c r="F11">
-        <v>60.21343743819734</v>
+        <v>56.82751701652799</v>
       </c>
       <c r="G11">
-        <v>2.052130197890264</v>
+        <v>3.742658349353739</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.86541243956976</v>
+        <v>26.82297259620997</v>
       </c>
       <c r="J11">
-        <v>7.792534243566573</v>
+        <v>10.71013318303855</v>
       </c>
       <c r="K11">
-        <v>27.71447200472704</v>
+        <v>22.38024445183805</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.89535688172747</v>
+        <v>5.069674024504153</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.293931175743628</v>
+        <v>4.713436105743908</v>
       </c>
       <c r="E12">
-        <v>9.837925028823156</v>
+        <v>11.91077380437134</v>
       </c>
       <c r="F12">
-        <v>60.87290931379917</v>
+        <v>56.95700445608222</v>
       </c>
       <c r="G12">
-        <v>2.047906882585284</v>
+        <v>3.741504725948892</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.98395959399912</v>
+        <v>26.84484560379695</v>
       </c>
       <c r="J12">
-        <v>7.845819548072145</v>
+        <v>10.71164987720873</v>
       </c>
       <c r="K12">
-        <v>28.12727131474585</v>
+        <v>22.45861200602134</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.88843541068174</v>
+        <v>5.065296111592104</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.292539660579231</v>
+        <v>4.71448917590834</v>
       </c>
       <c r="E13">
-        <v>9.815889516315666</v>
+        <v>11.90911279092116</v>
       </c>
       <c r="F13">
-        <v>60.73075385707121</v>
+        <v>56.92905730709009</v>
       </c>
       <c r="G13">
-        <v>2.048817430168552</v>
+        <v>3.741752269148522</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.95831526688134</v>
+        <v>26.84011725700287</v>
       </c>
       <c r="J13">
-        <v>7.834298614407487</v>
+        <v>10.71131039400549</v>
       </c>
       <c r="K13">
-        <v>28.03853839837518</v>
+        <v>22.44171052213714</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.86569959489735</v>
+        <v>5.050960488385071</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.287953185210347</v>
+        <v>4.717946694568822</v>
       </c>
       <c r="E14">
-        <v>9.744099324767715</v>
+        <v>11.90376739429683</v>
       </c>
       <c r="F14">
-        <v>60.26763680268509</v>
+        <v>56.83814300843688</v>
       </c>
       <c r="G14">
-        <v>2.051783168752072</v>
+        <v>3.742563029674261</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.8751148137648</v>
+        <v>26.82476416512769</v>
       </c>
       <c r="J14">
-        <v>7.796897926904181</v>
+        <v>10.71025217811362</v>
       </c>
       <c r="K14">
-        <v>27.74851115699449</v>
+        <v>22.38668104667669</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.85164879973477</v>
+        <v>5.042134831430753</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.285106974913684</v>
+        <v>4.720082387546522</v>
       </c>
       <c r="E15">
-        <v>9.70017962540866</v>
+        <v>11.90054820588938</v>
       </c>
       <c r="F15">
-        <v>59.98432074045166</v>
+        <v>56.78263150950193</v>
       </c>
       <c r="G15">
-        <v>2.053597089285967</v>
+        <v>3.743062311725061</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.82447877243758</v>
+        <v>26.81541154668237</v>
       </c>
       <c r="J15">
-        <v>7.774119002277341</v>
+        <v>10.70964157695967</v>
       </c>
       <c r="K15">
-        <v>27.5703500376924</v>
+        <v>22.35304430251898</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.769265900647583</v>
+        <v>4.990879021705368</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.26824571129346</v>
+        <v>4.732595556979611</v>
       </c>
       <c r="E16">
-        <v>9.449253972755068</v>
+        <v>11.88294592766651</v>
       </c>
       <c r="F16">
-        <v>58.36567017053371</v>
+        <v>56.46727344043308</v>
       </c>
       <c r="G16">
-        <v>2.063958950278749</v>
+        <v>3.745964496282229</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.53912311267213</v>
+        <v>26.76260833438068</v>
       </c>
       <c r="J16">
-        <v>7.645507364895654</v>
+        <v>10.70671859259126</v>
       </c>
       <c r="K16">
-        <v>26.54108890630836</v>
+        <v>22.16141796453332</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.717109698253293</v>
+        <v>4.958834674620152</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.257424856571045</v>
+        <v>4.740517450617893</v>
       </c>
       <c r="E17">
-        <v>9.295937755949472</v>
+        <v>11.87290435833737</v>
       </c>
       <c r="F17">
-        <v>57.37655045917449</v>
+        <v>56.27633096303574</v>
       </c>
       <c r="G17">
-        <v>2.070294455556269</v>
+        <v>3.747781598638979</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.36817505953262</v>
+        <v>26.73092488128718</v>
       </c>
       <c r="J17">
-        <v>7.568257724887008</v>
+        <v>10.70543950337504</v>
       </c>
       <c r="K17">
-        <v>25.90180359839789</v>
+        <v>22.04492955535656</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.686534038454287</v>
+        <v>4.940185269286541</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.251031049178843</v>
+        <v>4.745164377345765</v>
       </c>
       <c r="E18">
-        <v>9.207962132305733</v>
+        <v>11.86740772067365</v>
       </c>
       <c r="F18">
-        <v>56.80887956051938</v>
+        <v>56.16745538009253</v>
       </c>
       <c r="G18">
-        <v>2.073933773203991</v>
+        <v>3.748840284905276</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.27128863170602</v>
+        <v>26.71296296087275</v>
       </c>
       <c r="J18">
-        <v>7.524407098005204</v>
+        <v>10.70489269717622</v>
       </c>
       <c r="K18">
-        <v>25.53103867561667</v>
+        <v>21.97834391957953</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.676084173773084</v>
+        <v>4.933833630368929</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.248837506586676</v>
+        <v>4.746753308130067</v>
       </c>
       <c r="E19">
-        <v>9.178209315070085</v>
+        <v>11.86559465003064</v>
       </c>
       <c r="F19">
-        <v>56.61687535313112</v>
+        <v>56.13075725387881</v>
       </c>
       <c r="G19">
-        <v>2.075165451698436</v>
+        <v>3.749201067406575</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.23872520213643</v>
+        <v>26.70692635625824</v>
       </c>
       <c r="J19">
-        <v>7.509657710387417</v>
+        <v>10.70473999620659</v>
       </c>
       <c r="K19">
-        <v>25.40496216372479</v>
+        <v>21.95587267872667</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.722721892942082</v>
+        <v>4.962268502212623</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.258594458343071</v>
+        <v>4.739664794672082</v>
       </c>
       <c r="E20">
-        <v>9.312236648317471</v>
+        <v>11.87394444289288</v>
       </c>
       <c r="F20">
-        <v>57.48171156648889</v>
+        <v>56.29655937384507</v>
       </c>
       <c r="G20">
-        <v>2.069620582732405</v>
+        <v>3.747586765032136</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.38622236353458</v>
+        <v>26.73427058489944</v>
       </c>
       <c r="J20">
-        <v>7.576420390933309</v>
+        <v>10.70555611411417</v>
       </c>
       <c r="K20">
-        <v>25.97017007873192</v>
+        <v>22.05728746617497</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.872403699052152</v>
+        <v>5.055180530624025</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.289308061579757</v>
+        <v>4.716927416300257</v>
       </c>
       <c r="E21">
-        <v>9.765174447248645</v>
+        <v>11.90532600604531</v>
       </c>
       <c r="F21">
-        <v>60.40358980554348</v>
+        <v>56.86481017112492</v>
       </c>
       <c r="G21">
-        <v>2.050912638066228</v>
+        <v>3.742324333947564</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.89948426638334</v>
+        <v>26.82926299342958</v>
       </c>
       <c r="J21">
-        <v>7.807856134825558</v>
+        <v>10.71055516886418</v>
       </c>
       <c r="K21">
-        <v>27.8338045513285</v>
+        <v>22.40282999398517</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.964706943604858</v>
+        <v>5.113910665063433</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.307746182784748</v>
+        <v>4.702867410668921</v>
       </c>
       <c r="E22">
-        <v>10.06354814915786</v>
+        <v>11.92830071928747</v>
       </c>
       <c r="F22">
-        <v>62.32864679010009</v>
+        <v>57.24414236375193</v>
       </c>
       <c r="G22">
-        <v>2.038574495238835</v>
+        <v>3.739004564487054</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.24935257970722</v>
+        <v>26.89365744066908</v>
       </c>
       <c r="J22">
-        <v>7.964865148764131</v>
+        <v>10.71550458943867</v>
       </c>
       <c r="K22">
-        <v>29.02844115681996</v>
+        <v>22.63187460416844</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.915968382210163</v>
+        <v>5.082749933641848</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.298061593380627</v>
+        <v>4.710298542330063</v>
       </c>
       <c r="E23">
-        <v>9.904053357372598</v>
+        <v>11.91581416426529</v>
       </c>
       <c r="F23">
-        <v>61.29953348265449</v>
+        <v>57.04098353242762</v>
       </c>
       <c r="G23">
-        <v>2.045173523350581</v>
+        <v>3.740765499589061</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.06121513550942</v>
+        <v>26.85907836697559</v>
       </c>
       <c r="J23">
-        <v>7.880508031158567</v>
+        <v>10.71270908519816</v>
       </c>
       <c r="K23">
-        <v>28.39276645473965</v>
+        <v>22.50935881298339</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.720186454501965</v>
+        <v>4.960716774269452</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.25806621823216</v>
+        <v>4.740049992171752</v>
       </c>
       <c r="E24">
-        <v>9.304867400586044</v>
+        <v>11.87347335955435</v>
       </c>
       <c r="F24">
-        <v>57.43416519665567</v>
+        <v>56.2874113011063</v>
       </c>
       <c r="G24">
-        <v>2.069925249412068</v>
+        <v>3.747674805656657</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.37805885261333</v>
+        <v>26.73275720307894</v>
       </c>
       <c r="J24">
-        <v>7.572728307348106</v>
+        <v>10.70550280708498</v>
       </c>
       <c r="K24">
-        <v>25.93927169844081</v>
+        <v>22.05169924978816</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.487130858779323</v>
+        <v>4.820770464818086</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.208474141279114</v>
+        <v>4.775603635132723</v>
       </c>
       <c r="E25">
-        <v>8.666508732597416</v>
+        <v>11.8384755556592</v>
       </c>
       <c r="F25">
-        <v>53.3118122201265</v>
+        <v>55.51112927680872</v>
       </c>
       <c r="G25">
-        <v>2.096471472519998</v>
+        <v>3.755645779789803</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.69551439242299</v>
+        <v>26.60650481996252</v>
       </c>
       <c r="J25">
-        <v>7.262780956877261</v>
+        <v>10.70494964730955</v>
       </c>
       <c r="K25">
-        <v>23.17410546844804</v>
+        <v>21.57420176886598</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_252/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.710855504857414</v>
+        <v>5.29850666077328</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.804792576929309</v>
+        <v>2.166920159255169</v>
       </c>
       <c r="E2">
-        <v>11.82195001753959</v>
+        <v>8.202349068743656</v>
       </c>
       <c r="F2">
-        <v>54.97338331793419</v>
+        <v>50.30492233784667</v>
       </c>
       <c r="G2">
-        <v>3.761966999061995</v>
+        <v>2.116184922254516</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.52218951118286</v>
+        <v>22.23263278750855</v>
       </c>
       <c r="J2">
-        <v>10.71073704869555</v>
+        <v>7.051251810080951</v>
       </c>
       <c r="K2">
-        <v>21.23899976025265</v>
+        <v>21.01927465240801</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.632236651735319</v>
+        <v>5.160885793046582</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.826469558780695</v>
+        <v>2.135824474890669</v>
       </c>
       <c r="E3">
-        <v>11.81653496596466</v>
+        <v>7.891704637571411</v>
       </c>
       <c r="F3">
-        <v>54.6311420076131</v>
+        <v>48.28371062283201</v>
       </c>
       <c r="G3">
-        <v>3.766536344042706</v>
+        <v>2.129770331502638</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.47044735959709</v>
+        <v>21.94072168377151</v>
       </c>
       <c r="J3">
-        <v>10.71851207039544</v>
+        <v>6.917458901116456</v>
       </c>
       <c r="K3">
-        <v>21.02325319522942</v>
+        <v>19.68037648932307</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.581987213235194</v>
+        <v>5.071830626118468</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.840719957687169</v>
+        <v>2.11534575849014</v>
       </c>
       <c r="E4">
-        <v>11.81606588957188</v>
+        <v>7.703172176300391</v>
       </c>
       <c r="F4">
-        <v>54.43228218873997</v>
+        <v>47.05168207497303</v>
       </c>
       <c r="G4">
-        <v>3.769483792932824</v>
+        <v>2.138256895623542</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.44133997575311</v>
+        <v>21.77136331695412</v>
       </c>
       <c r="J4">
-        <v>10.72518166284763</v>
+        <v>6.839798970908005</v>
       </c>
       <c r="K4">
-        <v>20.89680162844493</v>
+        <v>18.86362816742151</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.56102268477329</v>
+        <v>5.034435907204983</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.84676448661288</v>
+        <v>2.106660675736371</v>
       </c>
       <c r="E5">
-        <v>11.81659301440608</v>
+        <v>7.626955589743993</v>
       </c>
       <c r="F5">
-        <v>54.35412799357311</v>
+        <v>46.5521213771444</v>
       </c>
       <c r="G5">
-        <v>3.77072072426479</v>
+        <v>2.141756205026237</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.43014787860669</v>
+        <v>21.70471151504595</v>
       </c>
       <c r="J5">
-        <v>10.72837553597462</v>
+        <v>6.809250992777631</v>
       </c>
       <c r="K5">
-        <v>20.84684026074389</v>
+        <v>18.52600215905531</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.557512393035407</v>
+        <v>5.02816109186798</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.847782537760971</v>
+        <v>2.105198244113965</v>
       </c>
       <c r="E6">
-        <v>11.81672392141583</v>
+        <v>7.614338757190202</v>
       </c>
       <c r="F6">
-        <v>54.34132593597738</v>
+        <v>46.46932926661197</v>
       </c>
       <c r="G6">
-        <v>3.770928283784603</v>
+        <v>2.142339860068004</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.4283298571536</v>
+        <v>21.69378334025563</v>
       </c>
       <c r="J6">
-        <v>10.72893459917926</v>
+        <v>6.804244065468811</v>
       </c>
       <c r="K6">
-        <v>20.83864050821918</v>
+        <v>18.46965647268365</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.581706438825261</v>
+        <v>5.071330722613273</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.840800514063455</v>
+        <v>2.115229993306812</v>
       </c>
       <c r="E7">
-        <v>11.81607009037217</v>
+        <v>7.702141730072558</v>
       </c>
       <c r="F7">
-        <v>54.43121644322206</v>
+        <v>47.04493432441809</v>
       </c>
       <c r="G7">
-        <v>3.769500329377049</v>
+        <v>2.138303917041865</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.44118632531529</v>
+        <v>21.77045501445456</v>
       </c>
       <c r="J7">
-        <v>10.72522281043581</v>
+        <v>6.839382578197715</v>
       </c>
       <c r="K7">
-        <v>20.89612140978217</v>
+        <v>18.85909396098101</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.684163715696673</v>
+        <v>5.252025181183613</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.812072075109884</v>
+        <v>2.156491335255447</v>
       </c>
       <c r="E8">
-        <v>11.81949041689059</v>
+        <v>8.094811709183244</v>
       </c>
       <c r="F8">
-        <v>54.85306743637991</v>
+        <v>49.60625363042686</v>
       </c>
       <c r="G8">
-        <v>3.763513159449757</v>
+        <v>2.120841904753107</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.50379626594347</v>
+        <v>22.12985765033876</v>
       </c>
       <c r="J8">
-        <v>10.71302402076525</v>
+        <v>7.004169529740543</v>
       </c>
       <c r="K8">
-        <v>21.16339571854064</v>
+        <v>20.53506245282632</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.868999022917149</v>
+        <v>5.568394734822463</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.76316186905344</v>
+        <v>2.225992726067535</v>
       </c>
       <c r="E9">
-        <v>11.84883226585314</v>
+        <v>8.880615987577292</v>
       </c>
       <c r="F9">
-        <v>55.76752035965945</v>
+        <v>54.69555181681758</v>
       </c>
       <c r="G9">
-        <v>3.75289093338113</v>
+        <v>2.087521207741154</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.64769233640148</v>
+        <v>22.91883909740606</v>
       </c>
       <c r="J9">
-        <v>10.70417247980333</v>
+        <v>7.364465905087057</v>
       </c>
       <c r="K9">
-        <v>21.73266804167342</v>
+        <v>24.12302378235201</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.994505745172386</v>
+        <v>5.775137887731654</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.731703853410386</v>
+        <v>2.269457041339828</v>
       </c>
       <c r="E10">
-        <v>11.884129486133</v>
+        <v>9.466777862445673</v>
       </c>
       <c r="F10">
-        <v>56.48918826643218</v>
+        <v>58.47871626904266</v>
       </c>
       <c r="G10">
-        <v>3.745758983118855</v>
+        <v>2.063235171452567</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.7662590244058</v>
+        <v>23.55882942008387</v>
       </c>
       <c r="J10">
-        <v>10.70689014348933</v>
+        <v>7.654402588714107</v>
       </c>
       <c r="K10">
-        <v>22.17476473728582</v>
+        <v>26.61363274456891</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.049275398161893</v>
+        <v>5.86301999702185</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.71835404443023</v>
+        <v>2.287411076857976</v>
       </c>
       <c r="E11">
-        <v>11.90314852147962</v>
+        <v>9.735697397851713</v>
       </c>
       <c r="F11">
-        <v>56.82751701652799</v>
+        <v>60.21343743819729</v>
       </c>
       <c r="G11">
-        <v>3.742658349353739</v>
+        <v>2.052130197890405</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.82297259620997</v>
+        <v>23.86541243956975</v>
       </c>
       <c r="J11">
-        <v>10.71013318303855</v>
+        <v>7.792534243566597</v>
       </c>
       <c r="K11">
-        <v>22.38024445183805</v>
+        <v>27.71447200472705</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.069674024504153</v>
+        <v>5.895356881727477</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.713436105743908</v>
+        <v>2.293931175743501</v>
       </c>
       <c r="E12">
-        <v>11.91077380437134</v>
+        <v>9.837925028823156</v>
       </c>
       <c r="F12">
-        <v>56.95700445608222</v>
+        <v>60.87290931379917</v>
       </c>
       <c r="G12">
-        <v>3.741504725948892</v>
+        <v>2.047906882585146</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.84484560379695</v>
+        <v>23.9839595939991</v>
       </c>
       <c r="J12">
-        <v>10.71164987720873</v>
+        <v>7.84581954807214</v>
       </c>
       <c r="K12">
-        <v>22.45861200602134</v>
+        <v>28.12727131474577</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.065296111592104</v>
+        <v>5.888435410681736</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.71448917590834</v>
+        <v>2.292539660579368</v>
       </c>
       <c r="E13">
-        <v>11.90911279092116</v>
+        <v>9.815889516315675</v>
       </c>
       <c r="F13">
-        <v>56.92905730709009</v>
+        <v>60.73075385707123</v>
       </c>
       <c r="G13">
-        <v>3.741752269148522</v>
+        <v>2.048817430168549</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.84011725700287</v>
+        <v>23.95831526688134</v>
       </c>
       <c r="J13">
-        <v>10.71131039400549</v>
+        <v>7.834298614407502</v>
       </c>
       <c r="K13">
-        <v>22.44171052213714</v>
+        <v>28.03853839837518</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.050960488385071</v>
+        <v>5.865699594897398</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.717946694568822</v>
+        <v>2.287953185210415</v>
       </c>
       <c r="E14">
-        <v>11.90376739429683</v>
+        <v>9.744099324767713</v>
       </c>
       <c r="F14">
-        <v>56.83814300843688</v>
+        <v>60.26763680268512</v>
       </c>
       <c r="G14">
-        <v>3.742563029674261</v>
+        <v>2.051783168751814</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.82476416512769</v>
+        <v>23.87511481376482</v>
       </c>
       <c r="J14">
-        <v>10.71025217811362</v>
+        <v>7.796897926904174</v>
       </c>
       <c r="K14">
-        <v>22.38668104667669</v>
+        <v>27.74851115699448</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.042134831430753</v>
+        <v>5.851648799734864</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.720082387546522</v>
+        <v>2.285106974914002</v>
       </c>
       <c r="E15">
-        <v>11.90054820588938</v>
+        <v>9.700179625408634</v>
       </c>
       <c r="F15">
-        <v>56.78263150950193</v>
+        <v>59.98432074045175</v>
       </c>
       <c r="G15">
-        <v>3.743062311725061</v>
+        <v>2.053597089286237</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.81541154668237</v>
+        <v>23.8244787724376</v>
       </c>
       <c r="J15">
-        <v>10.70964157695967</v>
+        <v>7.774119002277345</v>
       </c>
       <c r="K15">
-        <v>22.35304430251898</v>
+        <v>27.57035003769253</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.990879021705368</v>
+        <v>5.769265900647577</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.732595556979611</v>
+        <v>2.268245711293402</v>
       </c>
       <c r="E16">
-        <v>11.88294592766651</v>
+        <v>9.449253972755056</v>
       </c>
       <c r="F16">
-        <v>56.46727344043308</v>
+        <v>58.36567017053375</v>
       </c>
       <c r="G16">
-        <v>3.745964496282229</v>
+        <v>2.06395895027863</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.76260833438068</v>
+        <v>23.53912311267217</v>
       </c>
       <c r="J16">
-        <v>10.70671859259126</v>
+        <v>7.64550736489565</v>
       </c>
       <c r="K16">
-        <v>22.16141796453332</v>
+        <v>26.54108890630839</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.958834674620152</v>
+        <v>5.717109698253417</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.740517450617893</v>
+        <v>2.257424856571252</v>
       </c>
       <c r="E17">
-        <v>11.87290435833737</v>
+        <v>9.295937755949481</v>
       </c>
       <c r="F17">
-        <v>56.27633096303574</v>
+        <v>57.37655045917433</v>
       </c>
       <c r="G17">
-        <v>3.747781598638979</v>
+        <v>2.070294455556404</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.73092488128718</v>
+        <v>23.36817505953249</v>
       </c>
       <c r="J17">
-        <v>10.70543950337504</v>
+        <v>7.568257724887014</v>
       </c>
       <c r="K17">
-        <v>22.04492955535656</v>
+        <v>25.90180359839785</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.940185269286541</v>
+        <v>5.686534038454225</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.745164377345765</v>
+        <v>2.251031049178779</v>
       </c>
       <c r="E18">
-        <v>11.86740772067365</v>
+        <v>9.207962132305752</v>
       </c>
       <c r="F18">
-        <v>56.16745538009253</v>
+        <v>56.80887956051946</v>
       </c>
       <c r="G18">
-        <v>3.748840284905276</v>
+        <v>2.073933773203865</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.71296296087275</v>
+        <v>23.2712886317061</v>
       </c>
       <c r="J18">
-        <v>10.70489269717622</v>
+        <v>7.524407098005248</v>
       </c>
       <c r="K18">
-        <v>21.97834391957953</v>
+        <v>25.53103867561665</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.933833630368929</v>
+        <v>5.676084173773019</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.746753308130067</v>
+        <v>2.24883750658674</v>
       </c>
       <c r="E19">
-        <v>11.86559465003064</v>
+        <v>9.178209315070054</v>
       </c>
       <c r="F19">
-        <v>56.13075725387881</v>
+        <v>56.61687535313133</v>
       </c>
       <c r="G19">
-        <v>3.749201067406575</v>
+        <v>2.07516545169804</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.70692635625824</v>
+        <v>23.23872520213652</v>
       </c>
       <c r="J19">
-        <v>10.70473999620659</v>
+        <v>7.509657710387366</v>
       </c>
       <c r="K19">
-        <v>21.95587267872667</v>
+        <v>25.40496216372486</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.962268502212623</v>
+        <v>5.722721892941948</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.739664794672082</v>
+        <v>2.258594458342806</v>
       </c>
       <c r="E20">
-        <v>11.87394444289288</v>
+        <v>9.312236648317494</v>
       </c>
       <c r="F20">
-        <v>56.29655937384507</v>
+        <v>57.48171156648899</v>
       </c>
       <c r="G20">
-        <v>3.747586765032136</v>
+        <v>2.069620582732794</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.73427058489944</v>
+        <v>23.38622236353456</v>
       </c>
       <c r="J20">
-        <v>10.70555611411417</v>
+        <v>7.576420390933333</v>
       </c>
       <c r="K20">
-        <v>22.05728746617497</v>
+        <v>25.97017007873201</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.055180530624025</v>
+        <v>5.872403699052164</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.716927416300257</v>
+        <v>2.289308061579873</v>
       </c>
       <c r="E21">
-        <v>11.90532600604531</v>
+        <v>9.765174447248612</v>
       </c>
       <c r="F21">
-        <v>56.86481017112492</v>
+        <v>60.40358980554332</v>
       </c>
       <c r="G21">
-        <v>3.742324333947564</v>
+        <v>2.050912638066231</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.82926299342958</v>
+        <v>23.89948426638332</v>
       </c>
       <c r="J21">
-        <v>10.71055516886418</v>
+        <v>7.807856134825554</v>
       </c>
       <c r="K21">
-        <v>22.40282999398517</v>
+        <v>27.83380455132845</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.113910665063433</v>
+        <v>5.964706943604912</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.702867410668921</v>
+        <v>2.307746182784927</v>
       </c>
       <c r="E22">
-        <v>11.92830071928747</v>
+        <v>10.06354814915789</v>
       </c>
       <c r="F22">
-        <v>57.24414236375193</v>
+        <v>62.32864679010001</v>
       </c>
       <c r="G22">
-        <v>3.739004564487054</v>
+        <v>2.038574495238302</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.89365744066908</v>
+        <v>24.24935257970719</v>
       </c>
       <c r="J22">
-        <v>10.71550458943867</v>
+        <v>7.964865148764195</v>
       </c>
       <c r="K22">
-        <v>22.63187460416844</v>
+        <v>29.0284411568199</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.082749933641848</v>
+        <v>5.915968382209996</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.710298542330063</v>
+        <v>2.298061593380495</v>
       </c>
       <c r="E23">
-        <v>11.91581416426529</v>
+        <v>9.904053357372606</v>
       </c>
       <c r="F23">
-        <v>57.04098353242762</v>
+        <v>61.29953348265445</v>
       </c>
       <c r="G23">
-        <v>3.740765499589061</v>
+        <v>2.045173523350443</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.85907836697559</v>
+        <v>24.06121513550941</v>
       </c>
       <c r="J23">
-        <v>10.71270908519816</v>
+        <v>7.880508031158549</v>
       </c>
       <c r="K23">
-        <v>22.50935881298339</v>
+        <v>28.39276645473975</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.960716774269452</v>
+        <v>5.720186454501976</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.740049992171752</v>
+        <v>2.258066218232288</v>
       </c>
       <c r="E24">
-        <v>11.87347335955435</v>
+        <v>9.304867400586025</v>
       </c>
       <c r="F24">
-        <v>56.2874113011063</v>
+        <v>57.4341651966556</v>
       </c>
       <c r="G24">
-        <v>3.747674805656657</v>
+        <v>2.069925249412204</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.73275720307894</v>
+        <v>23.37805885261329</v>
       </c>
       <c r="J24">
-        <v>10.70550280708498</v>
+        <v>7.572728307348105</v>
       </c>
       <c r="K24">
-        <v>22.05169924978816</v>
+        <v>25.93927169844072</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.820770464818086</v>
+        <v>5.487130858779272</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.775603635132723</v>
+        <v>2.208474141279114</v>
       </c>
       <c r="E25">
-        <v>11.8384755556592</v>
+        <v>8.666508732597404</v>
       </c>
       <c r="F25">
-        <v>55.51112927680872</v>
+        <v>53.31181222012648</v>
       </c>
       <c r="G25">
-        <v>3.755645779789803</v>
+        <v>2.096471472520135</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.60650481996252</v>
+        <v>22.69551439242297</v>
       </c>
       <c r="J25">
-        <v>10.70494964730955</v>
+        <v>7.262780956877227</v>
       </c>
       <c r="K25">
-        <v>21.57420176886598</v>
+        <v>23.17410546844807</v>
       </c>
       <c r="L25">
         <v>0</v>
